--- a/docassemble_demo/docassemble/demo/data/sources/signdoc_es.xlsx
+++ b/docassemble_demo/docassemble/demo/data/sources/signdoc_es.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="194">
   <si>
     <t xml:space="preserve">interview</t>
   </si>
@@ -49,24 +49,999 @@
     <t xml:space="preserve">docassemble.demo:data/questions/examples/signdoc.yml</t>
   </si>
   <si>
+    <t xml:space="preserve">Question_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30326b94d988a84e20a76f784d412782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">en</t>
+  </si>
+  <si>
+    <t xml:space="preserve">es</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sorry, there was a problem with the template.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3a2cc57957eb2aef760179cb14556067</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">% if document_templates[i].file.mimetype == 'application/pdf':
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Your template did not contain any digital signature fields.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">% else:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Your template contained an error.
+It might be missing the signer's signature.  Where the signature
+goes, you need to write this:
+&gt; {{ signature }}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">% endif
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Question_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b4a7fcf242a9eeb159f9ad67f9dfc590</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tell me about the signer.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51da461a236ab8d4322497985738960c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you provide a Legal Server ID, the document will be e-mailed to
+Legal Server as well as to you when it is signed.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49ee3087348e8d44e1feda1917443987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1e884e3078d9978e216a027ecd57fb34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E-mail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d1457170f205323fa446500f864338e7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mobile number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4994a8ffeba4ac3140beb89e8d41f174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78463a384a5aa4fad5fa73e2f506ecfc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">English</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cb5480c32e71778852b08ae1e8712775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spanish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9cfefed8fb9497baa5cd519d7d2bb5d7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a2dd151f83173a021640e58b17175a92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Legal Server case ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Question_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5add9ac0a222c9c3f5946d24f45aa4da</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is your name and e-mail address?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">555e6cc1a600839b092412cf2edcc10a</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">% if len(document_templates) == 1:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">The signed document
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">% else:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">The signed documents
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">% endif
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">will be e-mailed to this address.
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">20db0bfeecd8fe60533206a2b5e9891a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f83136439481071f8358184c3bde242c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${ user_info().first_name }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8d3f5eff9c40ee315d452392bed5309b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Last name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5adfaa8b810e266b169f88c0c812e139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${ user_info().last_name }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5b59022c65c6e56562942cddee356471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${ user_info().email }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Question_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fb97f639c286eb99aea99c15ccfa594b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please approve the subject and body of the e-mail.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cda0cb3c70effa1a5b31516f933ac149</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">% if legal_server_id:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">This e-mail will be bcc'd to you and the Legal Server case.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">% endif
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">c76aaaf4956207bdd500863aa91497bd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your signature needed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">431d25a230d77cc197f1d07ee885b9f6</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">${ signer }</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">% if signer.language == 'es':
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Necesito que firmes un documento. Puedes firmarlo usando una pantalla táctil o con un mouse. Para ver el documento y empezar el proceso de firma, visite este enlace:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">${ url_for_signer }
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Gracias,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">% else:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">I need you to sign a document. You can sign it using a touchscreen or with a mouse. To see the document and start the signing process, visit this link:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">${ url_for_signer }
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Thank you,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">% endif
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">${ advocate }
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Question_9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">282ed48c4f3319cb70ea48d2365b29f7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${ body_of_signer_email }
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d42a091e700ba2c8b0c8fa2010314276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${ subject_of_signer_email }
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Question_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b79427c276aef705eb7f96364ca1351f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What should the text message to the signer say?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7d436455bf2cc493581f4945f0e7d631</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">% if legal_server_id:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">A copy of this message will be e-mailed to the Legal Server case.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">% endif
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">b5ec654bb986447d3a36a8c79cd090d7</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">${ signer.name }</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,
+I need you to sign a document for me.
+You can sign the document by clicking this link:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">${ url_for_signer }
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Thank you,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">${ advocate }
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Question_12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5dbaefed60706c725d96a1b8e7248cf8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Should I notify the signer by e-mail or text message?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bedf076edfc306dd3f4bb3995a8ce2a7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text message</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01fbeff5d84ce2a2c12c97e7c394df41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I will contact the signer myself</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Question_14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ea53ffd1034aabf136dcdd04e04727f1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The signer has been asked to sign.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f76006077d2661ca5c96457044a1ed8c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You will receive an e-mail when the signer has signed the document.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Question_15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47dd8892aa5c40e93985957610694dbe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Share this link with the signer.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0bc79f4be99a8d8e295741833709d40f</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">The link below will take the user to a screen
+where the user can sign the document you just
+uploaded.  After the document is signed, it
+will be e-mailed to you.
+It is *very important* that you give the
+user the *exact* link as it appears below.  Do
+not click the link yourself and then copy the URL
+from the location bar in your browser.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;div class="card mb-3"&gt;
+&lt;h5 class="card-header"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Suggested content for e-mailing to the signer</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/h5&gt;
+&lt;div class="card-body"&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">% if signer.language == 'es':
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;p class="card-text"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Necesito que firmes un documento. Puedes firmarlo
+usando una pantalla táctil o con un mouse. Para ver el documento y empezar
+el proceso de firma, visite este enlace:</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/p&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;p class="card-text"&gt;&lt;a href="${ url_for_signer }"&gt;${ url_for_signer }&lt;/a&gt;&lt;/p&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;p class="card-text"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Gracias,</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/p&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">% else:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;p class="card-text"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">I need you to sign a document.  You can sign it
+using a touchscreen or with a mouse.  To see the document and start
+the signing process, visit this link:</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/p&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;p class="card-text"&gt;&lt;a href="${ url_for_signer }"&gt;${ url_for_signer }&lt;/a&gt;&lt;/p&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;p class="card-text"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Thank you,</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/p&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">% endif
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;p class="card-text"&gt;${ advocate }&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Question_17</t>
   </si>
   <si>
     <t xml:space="preserve">c59d41605866f4c066aaa4af2dc1d823</t>
   </si>
   <si>
-    <t xml:space="preserve">en</t>
-  </si>
-  <si>
-    <t xml:space="preserve">es</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sign your name</t>
   </si>
   <si>
     <t xml:space="preserve">Por favor, firme.</t>
   </si>
   <si>
+    <t xml:space="preserve">e5d7e29793eba8b2af69925b6da95cec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${ signer }
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">Question_18</t>
   </si>
   <si>
@@ -79,7 +1054,7 @@
     <t xml:space="preserve">Yo consiento en firmar</t>
   </si>
   <si>
-    <t xml:space="preserve">862707c4ec2f3a51793b5b611062b917</t>
+    <t xml:space="preserve">5257073fc562189842f60efce26121cd</t>
   </si>
   <si>
     <r>
@@ -525,10 +1500,421 @@
     <t xml:space="preserve">Documento</t>
   </si>
   <si>
+    <t xml:space="preserve">a5838337c1adfdf7d401722c0263e322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${ document_templates[i].document_filename }
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Question_23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9dc64cb8b4d14ac0c6ab9b62387c3e78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Collect an electronic signature
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1610c7e9d3377da82bf61c030f0594d2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">This app lets you collect an electronic signature from a signer and
+insert it into one or more documents.  It will ask you to upload a
+document template and will ask you information about the signer.
+#### Instructions
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">${ prog_disclose(word_file_instructions) }
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">${ prog_disclose(pdf_file_instructions) }
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Question_24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8c85550e6b1bdeb1635c4f35a82ec36d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the place where you want the signature to be, you need to
+include the word "signature" surrounded by double curly brackets.
+For example:
+&gt; I swear that the above is true and correct.
+&gt;
+&gt; {{ signature }}
+&gt;
+&gt; Angela Washington
+If you do not include "{{ signature }}" in exactly this way,
+a signature will not be inserted.
+To include the date when the signer signs, you can write
+"{{ signature_date }}" in the place where you want the date to
+appear.  The format of the date will be "August 2, 2021."
+If you want the date to appear in numeric format, write
+"{{ signature_date.format('MM/dd/yyyy') }}".
+To include your signature as well, you can include
+"{{ advocate_signature}}" and "{{ advocate_signature_date }}" in
+the same way.  You will sign first before the document is sent
+to the signer.
+To include the signer's name, or your name, write "{{ signer }}" or
+"{{ advocate }}".
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0457fb70d3e6acd399fd17bebec49eff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If your template is a .docx file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Question_25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">771795ce4e960e4ab5716f56c4d395b7</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">You will need to insert a "digital signature" field into the
+PDF file in the appropriate place, with the appropriate
+size.
+There are two ways to do this:
+1. You can use Adobe Acrobat Pro or other commercial software capable of
+   editing fields in PDF fields.
+2. You can use
+   [Documate's PDF Unlocker and Field Renamer](</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://www.documate.org/pdf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)
+   tool.
+The name of the signature field can be "Signature" or whatever you choose.
+If the signer's name needs to appear in multiple places, add
+multiple "digital signature" fields, but make sure to give each
+field a different name.
+If you want the date of the signature to be plugged into a text
+field, give the field a name that contains the word "date."
+If you want to sign the document as well, include an additional
+"digital signature" field (and an additional date field if you want
+your signature to be dated).  Later, you will be asked which
+signature field is yours.
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">8c67ec4212caf6f32b43be8edb176f7e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If your template is a .pdf file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Question_26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f8460828cf641531dd6ca9c751ff05a7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please upload the document(s) you want to be signed.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Question_31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1dbf5ccff7e75025ddefc234d951d7ff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Into which signature fields should the signer's signature be inserted?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7575ef008f6d706ef9059b60d23d657d</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">% if len(document_templates) &gt; 1:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(in the file </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">${ document_templates[i].file.filename }</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">% endif
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">a4ca5edd20d0b5d502ebece575681f58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Question_32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9f7f80dd4a7810784e97b24852040a50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Into which signature fields should your signature be inserted, if any?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Question_36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8a787c4eebf47af57283588d0b32a5d9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Into which fields should the date of the signer's signature be inserted?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Question_38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e83832cf619efd4518f0061f37e92bd8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Into which fields should the date of your signature (today's date) be inserted, if any?
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">Question_44</t>
   </si>
   <si>
-    <t xml:space="preserve">efa7d7703f517b79633bd2b793ee0904</t>
+    <t xml:space="preserve">fae895c0b890bff968836e8831f7f8a9</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">% if len(document_templates) == 1:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Here is your signed document.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">% else:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Here are your signed documents.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">% endif
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">% if len(document_templates) == 1:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Aquí está su documento firmado.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">% else:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Aquí están sus documentos firmados.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">% endif
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">2ba12e27da61c04439fce63936a46e5a</t>
   </si>
   <si>
     <r>
@@ -588,7 +1974,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">% endif    
+      <t xml:space="preserve">% endif
 </t>
     </r>
     <r>
@@ -675,6 +2061,347 @@
 ¡Gracias!
 </t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Question_45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0cb29fcda258c538f8ae73192c81bde3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">% if len(document_templates) == 1:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">The attached document has been signed.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">% else:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">The attached document have been signed.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">% endif
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">66cbc634e7dbb0d184598db452e49c40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Signed document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Question_50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">278cdb3fe49ea89c5bb43045cf0037ab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${ advocate }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Question_51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f9c416fbab1e46da238f3786fb76d35e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please upload your signature.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0b27918290ff5323bea1e3b78a9cf04e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">File</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81dd61b1fefd9218abe883e36647e249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Save this signature so I can use it again</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Question_52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2c0e91ce8793580cdea30318a1261490</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you want the system to remember your signature
+so that you can use it later?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Question_57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16f8b73a010955d679a3d2265ed07933</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Using a touchscreen device, open this link and sign your name:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[${ advocate_signature_url }]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">${ advocate_signature_url }</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">d011038661e951ded8b220de205f27c3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Link for providing your signature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Question_59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9c577108608ea55504ca338085ad379c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please open your e-mail on your touchscreen device and click
+the link to provide your signature.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Question_61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51f26784141bc0b5c777dcdfb8b5fd68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You need to use a different device to sign your name.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Question_66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2fc491ac064bc14e7fddeae27a61b7c2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How would you like to sign?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Question_68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e277ef69a481a72726df418a026c0c21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thank you for providing your signature.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6d463d2bd332741046266ae4aa3b242f</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">% if advocate_wants_to_keep_signature:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Your signature has been saved.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">% endif
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+If you want to download your signature image, you can do so here:
+[</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">:file:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> signature.png](</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">${ advocate_signature.url_for(attachment=True) }</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)
+You can now go back to your other computer to finish the process.
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Question_69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a35e6dec6a5c3d9ba4a2b09251eaa4da</t>
+  </si>
+  <si>
+    <t xml:space="preserve">That link was for the signer to click on, not for you to click on.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d6d75775431f8a2ac9f220790134318a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You need to share the original link with the signer.  It has
+a code embedded in it.  A URL other than the original URL will
+not work.
+If you want to test the link to see what the client sees, you can
+copy the original URL and then paste it into another browser, or
+open an incognito window and open it from there.  
+</t>
   </si>
 </sst>
 </file>
@@ -774,7 +2501,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -791,13 +2518,21 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -812,17 +2547,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F57" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G57" activeCellId="0" sqref="G57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
@@ -856,7 +2591,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -878,272 +2613,1750 @@
       <c r="G2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" customFormat="false" ht="165" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="2" t="n">
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="90" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="2" t="n">
+      <c r="C5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="5" t="s">
+      <c r="E5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="195" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="2" t="n">
+      <c r="E6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" customFormat="false" ht="105" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="90" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="2" t="n">
+      <c r="D16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="150" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="2" t="n">
+      <c r="D21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="1048444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="D22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" customFormat="false" ht="270" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" customFormat="false" ht="105" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H29" s="4"/>
+    </row>
+    <row r="30" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H31" s="4"/>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H32" s="4"/>
+    </row>
+    <row r="33" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H33" s="4"/>
+    </row>
+    <row r="34" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H34" s="4"/>
+    </row>
+    <row r="35" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H35" s="4"/>
+    </row>
+    <row r="36" customFormat="false" ht="525" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H36" s="4"/>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C37" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="H38" s="4"/>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C39" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="90" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C40" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="195" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C41" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="90" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C43" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="H43" s="4"/>
+    </row>
+    <row r="44" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C44" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H44" s="4"/>
+    </row>
+    <row r="45" customFormat="false" ht="150" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C45" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="H45" s="4"/>
+    </row>
+    <row r="46" customFormat="false" ht="405" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C46" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="H46" s="4"/>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C47" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H47" s="4"/>
+    </row>
+    <row r="48" customFormat="false" ht="390" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C48" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H48" s="4"/>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C49" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="H49" s="4"/>
+    </row>
+    <row r="50" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C50" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H50" s="4"/>
+    </row>
+    <row r="51" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C51" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H51" s="4"/>
+    </row>
+    <row r="52" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C52" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="H52" s="4"/>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C53" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="H53" s="4"/>
+    </row>
+    <row r="54" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C54" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H54" s="4"/>
+    </row>
+    <row r="55" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C55" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H55" s="4"/>
+    </row>
+    <row r="56" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C56" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="H56" s="4"/>
+    </row>
+    <row r="57" customFormat="false" ht="90" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C57" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="150" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C58" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="90" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C59" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="H59" s="4"/>
+    </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C60" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="H60" s="4"/>
+    </row>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C61" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="H61" s="4"/>
+    </row>
+    <row r="62" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C62" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="H62" s="4"/>
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C63" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="H63" s="4"/>
+    </row>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C64" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="H64" s="4"/>
+    </row>
+    <row r="65" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C65" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="H65" s="4"/>
+    </row>
+    <row r="66" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C66" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="H66" s="4"/>
+    </row>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C67" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="H67" s="4"/>
+    </row>
+    <row r="68" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A68" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C68" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="H68" s="4"/>
+    </row>
+    <row r="69" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C69" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="H69" s="4"/>
+    </row>
+    <row r="70" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C70" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="H70" s="4"/>
+    </row>
+    <row r="71" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A71" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C71" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="H71" s="4"/>
+    </row>
+    <row r="72" customFormat="false" ht="150" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A72" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C72" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="H72" s="4"/>
+    </row>
+    <row r="73" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A73" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C73" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="H73" s="4"/>
+    </row>
+    <row r="74" customFormat="false" ht="120" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A74" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C74" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="H74" s="4"/>
+    </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
